--- a/data/hotels_by_city/Dallas/Dallas_shard_160.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_160.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="885">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>KRB_01</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Location: The strip, next door to a 'gentleman's club'. Room: Asked to see room before booking. Was shown a very nice, clean, comfortable looking room. Reserved room online, checked in and the room we were given was not in the same condition as the room shown. Cons: The shower curtain was dirty, pullout couch had chips &amp; food crumbs under cushions and there were some undergarments beneath the pullout bed. There was someone across the hall having sex and did not feel it necessary to close their door. Pros: Keys to room were updated, making it easy to access. The reception area is upgraded and looks nice (wish all the rooms were). Near various food places. Staff: The housekeeper was pleasant.More</t>
   </si>
   <si>
+    <t>Mary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r562309654-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>mcoope346192</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r561604235-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>02/19/2018</t>
   </si>
   <si>
+    <t>kmille514871</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r561007338-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Gerald N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r555995449-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>Following GOSS had me driving in circles due to construction. However the hotel was clean, staff pleasant and many options for food within five minutesMore</t>
   </si>
   <si>
+    <t>raq236</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r540963797-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>Responded November 16, 2017</t>
   </si>
   <si>
+    <t>kimberlypX1299NX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r540950424-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>bryank926</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r540912373-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Larry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r538301750-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t>Great location in Dallas.  You can get to anywhere from this location.  They have done a complete remodel in the last couple of years.  This is the only place we stay when we visit Dallas.  The family that runs the business are very friendly and go out of their way to make your stay comfortable.More</t>
   </si>
   <si>
+    <t>wapinchin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r535436555-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>have stayed their before and is very good for what I need  I wish that I could get a better raite as the company I contract to is transit tec out of st cloude minnisota and with over 150 drivers delivering all over the states would like a better corpered rate we do get a better rate at some of the days innsMore</t>
   </si>
   <si>
+    <t>jasonhN5914ML</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r534197055-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -366,6 +399,9 @@
     <t>Responded October 23, 2017</t>
   </si>
   <si>
+    <t>F5289THkevinn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r533791294-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>This was okay for a quick stay, located across the street from Pappadeaux's, Pappas BBQ, and Pappas Bros. Steakhouse, so it's got that going for it.  The area around it was pretty sketchy, though.  When we drove in just before midnight (much later than we'd expected), saw a prostitute walking across the parking lot from the gas station next door.  Our car was not vandalized, though, in the couple of nights we were there.  Continental breakfast, can make waffles but no eggs.  Room was decent, bathtub was a little run down, had some rust or something stained near the drain.  Not a big deal though.More</t>
   </si>
   <si>
+    <t>fernandosX1408KD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r529501586-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -402,6 +441,9 @@
     <t>Responded October 4, 2017</t>
   </si>
   <si>
+    <t>L1879NXbillh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r528621698-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -420,6 +462,9 @@
     <t>The room was spacious for the price and the bathroom was clean. Bed was clean and comfortable. However the room smelled musty and the carpets were dirty (big red punch stain next to the bed). Breakfast was VERY simple. Two juices, coffee, three cereals, one waffle maker and some pre-made refrigerated breakfast sandwich type things you could microwave. Like I titled - it is "okay" for the money, just don't have high expectations. Basic and relatively clean. More</t>
   </si>
   <si>
+    <t>Diana A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r527928207-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -444,6 +489,9 @@
     <t>I checked for breakfast  orange juice and apple juice and waffles are out and we went to IHOP for breakfast. Thank you !!More</t>
   </si>
   <si>
+    <t>candacem75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r522380613-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -459,6 +507,9 @@
     <t>Responded September 9, 2017</t>
   </si>
   <si>
+    <t>Jundo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r518861269-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t>I thought the place very nice for the money, good location surrounded by restaurants, clean, Facilities are basic, but with a small gym, laundry room, pool and simple but good breakfast (I liked the Texas shaped waffle maker).More</t>
   </si>
   <si>
+    <t>966katring</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r509244479-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>H2548ELvaleriam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r498370132-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,6 +585,9 @@
     <t>We booked a room through booking for one price, however, the hotel asked as us to pay more than the price on booking.The employee was so rude and unpolite almost insulted us because we asked why we have to pay more. We travelled to the US during 2 weeks and  we only had problems with Days Inn hotelsMore</t>
   </si>
   <si>
+    <t>Gigs2much</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r496870830-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,6 +597,9 @@
     <t>06/28/2017</t>
   </si>
   <si>
+    <t>rhondad223</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r492876400-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -552,12 +615,18 @@
     <t>Responded June 14, 2017</t>
   </si>
   <si>
+    <t>shuug69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r492763804-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
     <t>492763804</t>
   </si>
   <si>
+    <t>rhughe_932099</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r489675227-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -576,6 +645,9 @@
     <t>Responded June 4, 2017</t>
   </si>
   <si>
+    <t>696jocelynm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r489648906-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,6 +663,9 @@
     <t>Ok so the hotel was ok, clean facilities and breakfast was decent with some variety of things to eat... the negative part and the reason for the 3 stars is that I think they were short staffed and nobody cleaned our rooms, one of the reasons why you stay in a hotel is  ot having to worry about making beds, cleaning or taking out the trash.... this didn't happen we even called them and they said they would send someone to clean up but nobody came, we ended up cleaning ourselvesMore</t>
   </si>
   <si>
+    <t>286princesss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r486512011-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -615,6 +690,9 @@
     <t>The stay was okay. The rooms were clean. The area was really nice. There are a few good resturants around. The breakfast nothing to brag about.More</t>
   </si>
   <si>
+    <t>Jill K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r484660510-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -630,6 +708,9 @@
     <t>Responded May 17, 2017</t>
   </si>
   <si>
+    <t>douglasrW9572IR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r482974642-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,6 +738,9 @@
     <t>Before checking into this hotel., we had a very bad experience at a nearby hotel. There(as a result) our money was refunded and for just a few dollars more, we were able to stay at this location.  Much nicer! Another example of "the cheap becomes expensive!.More</t>
   </si>
   <si>
+    <t>ernestos327</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r482956824-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -669,6 +753,9 @@
     <t>One of the worst hotels I have stayed got charged for the room double the manager was very unprofesionalMore</t>
   </si>
   <si>
+    <t>800prestonc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r481919208-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -684,6 +771,9 @@
     <t>Responded May 8, 2017</t>
   </si>
   <si>
+    <t>BarryHill1986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r481326044-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -726,6 +816,9 @@
     <t>Responded March 8, 2017</t>
   </si>
   <si>
+    <t>Rita H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r463060032-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -753,6 +846,9 @@
     <t>Average place to stay ... the hotel staff did not have any type of uniform or badge to distinguish who they were and made it kinda hard for me to give them my information... felt like they could be more professional about that More</t>
   </si>
   <si>
+    <t>manueln510</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r456555263-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -789,6 +885,9 @@
     <t>The room is great for the price. Close to tons of places to eat and not far from downtown. The outside of the building and the lobby aren't much to look at, but the room was perfectly fine. More</t>
   </si>
   <si>
+    <t>309tedg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r454886436-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -804,6 +903,9 @@
     <t xml:space="preserve">Stayed a total of 3 nights and felt great. Slept in almost every day so missed breakfast. Housekeeping was great and even offered to return later. </t>
   </si>
   <si>
+    <t>JG891p17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r454531647-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -819,6 +921,9 @@
     <t>Responded January 25, 2017</t>
   </si>
   <si>
+    <t>jasondF2497ZQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r449616457-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -846,6 +951,9 @@
     <t>Rooms were very clean.   Not a large breakfast but satisfactory.      Staff is very good.     Location of hotel is not best part of Dallas but not terribleMore</t>
   </si>
   <si>
+    <t>brittneyh2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r448905118-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -861,6 +969,9 @@
     <t>Responded January 5, 2017</t>
   </si>
   <si>
+    <t>dalemariemanning</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r447507567-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -876,6 +987,9 @@
     <t>Responded December 30, 2016</t>
   </si>
   <si>
+    <t>Z7661NCbillm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r446818109-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1014,9 @@
     <t>Limited exposure.  There only 8 hours.  Accomplished what we needed, a little sleep b4 our 6 am flight.More</t>
   </si>
   <si>
+    <t>jessica p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r444401720-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1059,9 @@
     <t>Very relaxing clean rooms. Quite stay. Lots of restaurants near by. Great movie theater down the road. Dine and wine while watching a movie. Gas monkey's live is on the same strip as the theater. Great staff at the day's inn! The pillows were soooo comfy!More</t>
   </si>
   <si>
+    <t>CASANDRA H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r437912706-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1089,9 @@
     <t>We stayed here for a week, and after reading some of the reviews on here, I couldn't believe what some say.. so I had to be sure to write a review. First, it's very clear as you walk in that this hotel is very well maintained. The staff (all 24hours) is on the spot, super friendly, and extremely accommodating. They were upgrading door locks while we were there and painting, like I said.. Well maintained.  Got to our room and wow.. for a Days Inn, this was so nice. I've been to some less than stellar ones. The bed was in a separated room with it's own door.. Very nice, bed was comfy, we had a jacuzzi room and the tub was in the bedroom and was immaculately clean. The bathroom has a tub shower and was spotless clean, everything worked, water was hot (this is a MAJOR thing for me personally) and I loved the little bar sink in the front room. Flat screen TV, great channels, air conditioners in both rooms.. I absolutely loved it. I saw no reason what so ever for a bad review or less than five stars. They earned every single one in my opinion. I forgot to take photos.. My bad, but I think it's worth every penny and I'd certainly stay here again without hesitation. And we travel A LOT.. nationwide. Thanks to the staff for making things easy! More</t>
   </si>
   <si>
+    <t>Robinson M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r429450063-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1137,9 @@
     <t>At this hotel Wyndham rewards customers get punished and frowned on for using free night stays here, bad service from the manager Balu Patel. If you don't actually pay for your hotel stay he will treat you unfairly!More</t>
   </si>
   <si>
+    <t>shecarahumphrey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r425613313-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1164,9 @@
     <t>The room was not properly cleaned upon arrival. I picked up a fake nail and a french fry. The stopper for the kitchen sink was DIRTY! Filled with old food. Had the room been cleaned properly...I would have given the hotel a 4 or 5 because the suite was nice at an affordable price. But the cleaning staff MUST do better!!!! A dirty room is UNACCEPTABLE!More</t>
   </si>
   <si>
+    <t>kirstent382</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r425324055-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1194,9 @@
     <t>This was an average stay at a discount hotel. I found a hair on the toilet that was stuck and would not come off. Otherwise, the staff was kind and fast-working.More</t>
   </si>
   <si>
+    <t>Gary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r421706072-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1212,9 @@
     <t>Responded September 27, 2016</t>
   </si>
   <si>
+    <t>Kay H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r420360668-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1236,9 @@
     <t>Hotel is a convenient and well maintained moderately priced hotel.  The breakfast is sparse.  The elevator broke and the 3 flights if stairs was a challenge for my fellow traveler who has a bad knee.  More</t>
   </si>
   <si>
+    <t>961cameronb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r419040054-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1257,9 @@
     <t>My truck was broken into in the parking lot within a couple hours of being there. When approached the fromt desk about it, they were rude and unhelpful.More</t>
   </si>
   <si>
+    <t>Shelly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r372126244-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1278,9 @@
     <t>Responded May 12, 2016</t>
   </si>
   <si>
+    <t>georgemJ8718BU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r370175609-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1317,9 @@
     <t>We stay here every time we visit Dallas.  It is a family owned Days Inn.  They are very nice and will go out of their way to make your stay great.  This is a No Smoking Days Inn, which is good if you have problems with smoke.More</t>
   </si>
   <si>
+    <t>Shaun H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r367929319-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1338,9 @@
     <t>Stayed here for a week in April 2016 with my brother to watch wrestlemania, I dont have any complaints for this hotel, I read some of the bad reviews about this place before coming and it was nothing like them. At the end of the day you pay for what you get and i was more than happy with what we got, theres a small breakfast area downstairs with a small variety, laundry facilities, ice machine and a vending machine. The room was straightened up every day with the towels replaced, staff are more than friendly and happy to help/guide you if you not familiar with the area, in fact the hotel owner actually gave us a lift to the "Gas monkeys bar &amp; grill" because it was only a couple of minuets down the road (you don't get that at the hilton) overall i would give the stay an 8 out of 10 and would defiantly recommend this place if you want a cheep and cheerful stay. Thanks days inn and suites for giving us a nice stay!More</t>
   </si>
   <si>
+    <t>Christy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r363664063-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1356,9 @@
     <t>Responded April 15, 2016</t>
   </si>
   <si>
+    <t>209brianad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r335719107-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1386,9 @@
     <t>I stayed here because I was stuck in Dallas after the storms on 12/26. The credit card machine didn't accept my card so luckily I had cash (I called my bank the next day and there was nothing stopping my card from working and they didn't even show the couple of times he tried to swipe the card). The lobby had an overwhelming smell of cologne which was so strong you could taste it. The refrigerator started making a noise in the middle of the night which kept me from sleeping during the few hours that I had.More</t>
   </si>
   <si>
+    <t>joann1968js</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r324901783-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1410,9 @@
     <t>10/15/2015</t>
   </si>
   <si>
+    <t>820reginaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r318879059-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1269,6 +1428,9 @@
     <t>There were 3 big sports games in the area this weekend. Because of that the prices for the rooms were inflated. In addition, to get the lower rate (which wasn't that low) I had to reserve a non-refundable room.More</t>
   </si>
   <si>
+    <t>715mikaelaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r318722350-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1446,9 @@
     <t>Responded October 16, 2015</t>
   </si>
   <si>
+    <t>981marthal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r295434244-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1467,9 @@
     <t>Responded October 2, 2015</t>
   </si>
   <si>
+    <t>Marixa T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r292094537-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1494,9 @@
     <t>When we checked in there was a nice gentlemen at the desk. He gave me a 3rd floor room, i had my kids and my husband with me. We DO NOT smoke and as soon as we got off the elevator on the 3rd floor it smelled like smoke plus the key to our rm door did not open. So of course we went back down to the front desk and i told him i have 3 kids with me and the floor upstairs smells highly like smoke. He did give a 1st floor close to the front office. I was glad that situation was fixed. What i dont understand is that WHY did he give me a 3rd floor when parking lot was empty???? This could of been avoided...room was kinda clean bf was ok. towels were stained had lil black dot in them and we didnt have anough towels in our room.More</t>
   </si>
   <si>
+    <t>kime795</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r288974122-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1521,9 @@
     <t>Over all it was an OK stay.  Lots of construction with limited parking.  Owners were parked next to front door.  Could not pull through.  Front desk staff was talking personal business on the phone when I arrived to check in &amp; she helped a contractor before helping me.  She just left my family standing there, she never offered an acknowledgement in our direction.   Glass in main driveway next to the only front of the building parking.More</t>
   </si>
   <si>
+    <t>Cjpic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r285287931-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1542,9 @@
     <t>Responded July 12, 2015</t>
   </si>
   <si>
+    <t>philstarr7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r278878593-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1578,9 @@
     <t>Responded March 30, 2015</t>
   </si>
   <si>
+    <t>Walter P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r251702124-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1428,6 +1608,9 @@
     <t>Nice clean hotel in nice area full of dining options.More</t>
   </si>
   <si>
+    <t>clemenciao2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r251338978-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1623,9 @@
     <t>Prabha P, Guest Relations Manager at Days Inn &amp; Suites Dallas, responded to this reviewResponded February 2, 2015</t>
   </si>
   <si>
+    <t>280karlah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r250239286-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1650,9 @@
     <t>Management was rude when I attempted to tell them of some problems with the room I was staying in. All the manager would say is 'This is the first I've heard of it.' As if that was an acceptable answer. Then he insinuated that perhaps I was unaware of how to 'run' the clock, light switch, and drain, because in the past, he found that other WOMEN had issues. He's a sexist jerk, and I will NEVER stay there again!More</t>
   </si>
   <si>
+    <t>MafsIreland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r243734811-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1674,9 @@
     <t>not even going to bother to write much. place smells of smoke, is shabby with bad kept carpets and hairs from others in the toilette! the bed is fine and clean though, but bring slippers or walk barefoot with a towel underneath your feet cos i didnt dare to walk on carpet. place is about 10 mins by taxi from dallas, breakfast only merits eating the bananas. for the price, stay in some other place....More</t>
   </si>
   <si>
+    <t>andresteele</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r234959624-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1503,6 +1695,9 @@
     <t>Responded October 28, 2014</t>
   </si>
   <si>
+    <t>Juan19732014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r234142702-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1722,9 @@
     <t>The hotel does not look as pictured.  There is construction in the lobby and the room was not what was pictured.  However it was too late to try and find other accommodations.  During the stay the power went out during the night for several hours and there was no indication of this so we overslept all alarms.More</t>
   </si>
   <si>
+    <t>TravelerTisha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r233352500-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1734,9 @@
     <t>10/08/2014</t>
   </si>
   <si>
+    <t>Tommy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r219125105-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1557,6 +1758,9 @@
     <t>I stay here often for business.  Room is always clean, front desk remembers me and quick check in.  Only small problems, iron not working, need extra coffee, etc always handled immediately. recently updated with new TV's and furniture.More</t>
   </si>
   <si>
+    <t>Houston T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r217038495-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1776,9 @@
     <t>Responded August 12, 2014</t>
   </si>
   <si>
+    <t>Travel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r216941022-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1581,6 +1788,9 @@
     <t>07/22/2014</t>
   </si>
   <si>
+    <t>Jeannette B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r211484454-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1599,6 +1809,9 @@
     <t>Responded June 23, 2014</t>
   </si>
   <si>
+    <t>Carl E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r211292311-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1623,6 +1836,9 @@
     <t>i stayed at this hotel recently and took it with an open mind being an international traveller, as soon as we walked in the front door we got a hit of cigarette smoke, not good. second when we asked the front desk for information about public transport they had no idea about any, this was not helpful being international traveler's with no car. our main concern was the constant smell of cigarette, other then that it was a ok stay, rooms were clean which is a main thing. for budget it is great if you can handle the cigarette smell.More</t>
   </si>
   <si>
+    <t>Bruce S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r210396106-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1863,9 @@
     <t>I had a room booked, prepaid for the room and then 2 days before the trip was told THEY CANCELED RESERVATION.  I would NOT RECOMMEND this place.  It is not a place you want to stay.  The staff has never been friendly or accommodating.  They say they are remodeling the place.  Don’t let that fool you.  They need major work starting with the owners.  When I would go to the lobby in the mornings, the person at the front desk would always be sleeping.  The TVs did not always work well, cracks in the bathroom tile, bathroom sinks stained, and the so called internet was spotty.   I did not get the feeling they really care about your safety either since the LIGHTS OUTSIDE DID NOT WORK which the OWNERS DID NOT CARE.  If price is your main concern, which it was with me, stay here.  If you could afford better, there are much better places to go.  BE CAREFUL THEY DON’T CANCEL YOUR RESERVATION.  I would recommend somewhere else to book so you are not scrambling to find a place at the last minute like I did.More</t>
   </si>
   <si>
+    <t>Passing T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r207600415-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1665,6 +1884,9 @@
     <t>Responded May 29, 2014</t>
   </si>
   <si>
+    <t>DS06233</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r206018762-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1905,9 @@
     <t>First off,  I dont know where all the negative reviews are coming from.... my boyfriend and i  stayed here a week ago for a concert and had a VERY PLEASANT stay. We were really surprised when we walked in the room to find a updated, very modern styled room. I'm not sure if this design or updated look is just exclusive to the first floor rooms, but i really dont understand all the complaining being done on here about the rooms. Our smoking king room was super nice and did not smell like smoke at all! The pool was big and clean, which was an extreme plus, considering we've stayed at nicer properties that had sucky pools. The breakfast was your average FREE continental breakfast of danishes and cereal, etc. which you really cant complain about because its FREE! If you want a hot breakfast, i recommend you stay at a four star hotel for that or go to ihop, which is right next door! The only negative i will say about this property, is they need to install rubber strip seals on the doors because the close VERY LOUDLY. Easy fix! All in all, I was very happy with my stay and DEFINITELY will be staying here again.More</t>
   </si>
   <si>
+    <t>Ammar K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r198180837-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1926,9 @@
     <t>Responded March 22, 2014</t>
   </si>
   <si>
+    <t>Jesskam30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r197249603-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +1953,9 @@
     <t>We check intp the Inn at about 8pm, clerk was pleasant... ordered pizza from Dominoes,  not too happy with service from them. I didn't get ANY sleep... baby screaming up and down the wall. Adults slamming doors and hollering!  Music being played so loud its heard over the television!  Its 445 am and the noise is still loud, I'm still laying awake and no one is doing anything about this. Will NEVER recommend this location to anyone!!!More</t>
   </si>
   <si>
+    <t>Jason R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r197076770-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1737,6 +1968,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Anabel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r192353718-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1753,6 +1987,9 @@
   </si>
   <si>
     <t>Responded January 29, 2014</t>
+  </si>
+  <si>
+    <t>Larry H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r191693621-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
@@ -1800,6 +2037,9 @@
 Stay here if you price is your main issue.  If you can afford...If you want a CHEAP PLACE, this is your place.  I stayed there for 5 days and hated each day.  If I had not prepaid for the entire trip, I would have left the place or even not checked in at all.My toilet ran all the time so had to shut off the water at night.  My shower dripped all the time so almost put a washcloth down to lessen the noise. One of the drawers would not stay closed.  The shower was never hot at 5 AM. At night, the lights outside were out.  Each morning I told them of the issues and was told it would be fixed.  When I came back at night NOTHING was done.  The last night I stayed there, I was told the parts were on order.  It does not take over a week to fix something if the desire to fix it is there.  My car was broken into at a place so I am very concerned about the lighting at night and each morning I hoped my car was still safe.  The staff is always different and I get the sense the guests are not important to either the manager or the staff.  They claim they remodeled the place, but if you can't fix simple items how do I know you are really taking care of the place.  Stay here if you price is your main issue.  If you can afford to stay somewhere else, you are better off.  There is nothing about this place I think is even adequate other than the price being cheap!More</t>
   </si>
   <si>
+    <t>Alonso D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r189640839-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1812,6 +2052,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Rachael E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r186877573-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1830,6 +2073,9 @@
     <t>I enjoyed the stay with few problems. The shower could have been cleaner, the bed could have been cleaner, and the walls should be more sound proof. More</t>
   </si>
   <si>
+    <t>Adrian W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r185712789-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1866,6 +2112,9 @@
     <t>Responded September 30, 2013</t>
   </si>
   <si>
+    <t>Kelsie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r178038625-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1881,6 +2130,9 @@
     <t>Responded September 24, 2013</t>
   </si>
   <si>
+    <t>Esther C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r175894123-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1906,6 +2158,9 @@
   </si>
   <si>
     <t>well first of all we ask for a non-smoking room and it smelled like a smoking freight train..there was a dead roach on the bed...someone half vacuumed the room...the tile in the bathroom was all cracked up..the microwave was busted up and couldn't open the door to the microwave..we where there for 3 days and on the last day the elevator was broke and we where on the 3rd floor..prostitutes where in and out and drug dealers and the hallways smelled like weed the whole 3 days...and to top it off there was a knock on the door and 2 men where looking for a prostitute.....hummmmmmm what a wonderful stay....i would recommend this hotel for anyone who wants entertainment.....YOU GET WHAT YOU PAY FORMore</t>
+  </si>
+  <si>
+    <t>NoGvmnt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r175572093-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
@@ -1954,6 +2209,9 @@
 Consisted of Frosted Flakes and Froot Loops, white bread and...I am an over-the-road truck driver and the company I was driving for provided this hotel as I had a 4-day layover in Dallas before driving back to Chicago. I stayed in room 215.   Following are the problems:1.) There were cockroaches (I have the pictures to prove it),2.) The toilet was not bolted to the floor (As I leaned to one side, the toilet turned and almost tipped completely over),3.) The grounds and the stairways were filthy and remained that way the four days that I was there.4.) At least four of the cable channels were nothing more than loud static,5.  The gate to the pool was always locked (this was when the outside temperature was between 101 and 104 degrees between August 27th and 31st of 2013).6.) For what was billed as a non-smoking room, there sure were a lot of long burn marks on the vanity top in the bathroom!7.)  The hinges on my door squeaked louder than the door in any horror movie, so everyone in the hotel knew when I was coming and going.THE GOOD:1.) The air conditioning worked very well, 2.) There is an IHOP right across the side street,3.) There is a waffle house near by,4.)  There was a small fridge and microwave in the room along with a coffee maker.THE BREAKFAST:Consisted of Frosted Flakes and Froot Loops, white bread and regular bagels, assorted (Aldi) type individually wrapped danish', bananas, apples, milk, coffee, and orange juice that appeared to be made from powder (Tang perhaps?), Cream Cheese for the bagels and vegetable spread and jelly for the white bread.More</t>
   </si>
   <si>
+    <t>Christopher S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r172497791-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1963,6 +2221,9 @@
     <t>08/16/2013</t>
   </si>
   <si>
+    <t>Hernandez G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r171913477-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1987,6 +2248,9 @@
     <t>We came up to Dallas for a weekend trip and wanted a hotel that was convenient to downtown and the major attractions but not terribly expensive. This hotel met all those needs! It is right off of the highway and not more than 10 mins from downtown and the attractions. Nearby there are lots of restaurants so even if you don't want to venture and explore, there are lots close by.The rooms were large, clean, modern, and well-kept. The bed was very comfortable and you could tell the rooms were recently refreshed.We plan on coming back to Dallas again and will definitely stay here again!More</t>
   </si>
   <si>
+    <t>Perry T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r170482208-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2014,6 +2278,9 @@
     <t>The front desk staff was helpful (luggage storage for late departures, addition of coffee machine in the room).This hotel was perfect for our overnight stay in Dallas. It's not directly in the center of the city, but is conveniently located to the interstate 35 and 635. The room was very comfortable and clean.The hotel staff were friendly and accommodating.The breakfast was really very good for a continental buffet. There was parking on-site for free.More</t>
   </si>
   <si>
+    <t>Jenny M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r169375569-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2029,6 +2296,9 @@
     <t>Responded August 4, 2013</t>
   </si>
   <si>
+    <t>Scott S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r169066186-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2044,6 +2314,9 @@
     <t>Responded July 31, 2013</t>
   </si>
   <si>
+    <t>Mintz P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r165417448-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2062,6 +2335,9 @@
     <t>Responded July 6, 2013</t>
   </si>
   <si>
+    <t>Melissa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r163983640-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2075,6 +2351,9 @@
   </si>
   <si>
     <t>Responded June 20, 2013</t>
+  </si>
+  <si>
+    <t>Jes M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r163915444-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
@@ -2100,6 +2379,9 @@
 4th day there a COCKROACH the size of a lemon on the wall, which was the last straw we complained to night guy who said he would inform manager, the following day an exterminator was sent to our room to be sprayed which kind of concerned us seeing as how chemcals are being sprayed although we were to remain in this room- when following up with manager and expressing our fustration and disgust - we were yelled at by the Indian hotel manager who after us having to demand some type of compensation he finally refunded one night and told us to check out?? LOL no apologies on his behalf- no customer service skills and neither from his miserable female front desk agent- We then at that time found out they had charged our CC at check in for the entire stay when this...My girlfriend and I stayed here for a week in April, trying to save some $$ while on vaca- BIg Mistake- Rooms are tired, and falling part. First room had a washroom fan so loud (that never turned off) so we had to change rooms- we were told man to fix it wasnt in a few days, so we changed to another room and dealt with the fact the WIFI only connects when literally sitting at door and toilet paper fixtures was falling out of wall- no excuse for this- management shoudl up keep all appearances.4th day there a COCKROACH the size of a lemon on the wall, which was the last straw we complained to night guy who said he would inform manager, the following day an exterminator was sent to our room to be sprayed which kind of concerned us seeing as how chemcals are being sprayed although we were to remain in this room- when following up with manager and expressing our fustration and disgust - we were yelled at by the Indian hotel manager who after us having to demand some type of compensation he finally refunded one night and told us to check out?? LOL no apologies on his behalf- no customer service skills and neither from his miserable female front desk agent- We then at that time found out they had charged our CC at check in for the entire stay when this was not a prepaid reservation!And yes this hotel had shady charcters/ prostitutes and pimps staying there, where as 2 young women together were hassled a couple times by other guests- DO NOT STAY HERE- STAY AT HOLIDAY IIN OR ELEGANTE HOTEL both next door!*** Hotel staff save your apologies***More</t>
   </si>
   <si>
+    <t>Muriel J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r158692281-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2115,6 +2397,9 @@
     <t>Responded April 27, 2013</t>
   </si>
   <si>
+    <t>Heather E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r158474741-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2133,6 +2418,9 @@
     <t>Responded April 23, 2013</t>
   </si>
   <si>
+    <t>Carla W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r158314226-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2148,6 +2436,9 @@
     <t>Responded April 21, 2013</t>
   </si>
   <si>
+    <t>THOMAS C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r147469177-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2175,6 +2466,9 @@
     <t>Dallas motel's in general are priced and this one is no exception. The room was ok but nothing special. I asked for 2 room keys but the front desk attendant said I did not need an additional key after 3 trips down stairs because the key was bad, he finally gave me an extra key card. Room was comfortable  but furniture was worn and the towels were small. Breakfast was just bagels, toast and a few apples. Definitely not the type of place you expect from a Days Inn.More</t>
   </si>
   <si>
+    <t>THOMAS M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r143615231-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2193,6 +2487,9 @@
     <t>Responded November 4, 2012</t>
   </si>
   <si>
+    <t>Matt S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r142015772-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2217,6 +2514,9 @@
     <t>Staff was accommodating and helpful.  However, don't expect much breakfast to be there past 9:30am.  It said breakfast would be available until 10am, but there wasn't much (if anything) still available.  However, decent value if you're looking for a budget hotel.More</t>
   </si>
   <si>
+    <t>gkinaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r125052400-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2235,6 +2535,9 @@
     <t>Very comfortable bed and I felt safe. The hotel is in an area with some lesser cost hotels that can attract clientele wanting a cheap sleep.  That is my only concern of the area.  The recent refurbishment certainly reflects a management commitment to perhaps provide a good comfortable safe stay.  But.  Smoky lobby.  Paint splatters all over a fairly new carpet.  A noisy ice machine or something cycling and clattering on the other side of the room wall all night. Hole in the window curtain. Big runny glob of dried liquid somethinf on wall by the microwave. Shower curtain rod improperly installed causing curtain to slide toward center and not keep water off floor. Thin doors and floors as you can hear people in the hall and walking the floor above you. Unsure check in clerk and snippy check out clerk making overtures about re running credit card and not double charging for the room. I can understand why they have lost most  of their business.   They will have to try harder to get mine again.  More</t>
   </si>
   <si>
+    <t>SarahCloudcakes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r119519408-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2253,6 +2556,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>jrleecurtis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r115198029-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2271,6 +2577,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>bikerbop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r99246392-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2292,6 +2601,9 @@
     <t>Even though I read the reviews of those who have gone before me I opted to book anyway. I wanted the jacuzzi suite for 2 nights while we attended the North Texas Irish Festival.  At first glance, in the dark our room seemed just fine. Once we turned on the lights we noticed the carpet had huge tears and cigarettes burns. We requested a nonsmoking room but I guess the jacuzzi suite allows smoking.  I walked into the bathroom and saw a giant dead roach belly side up on the floor. I took a picture with the phone and when I can figure out how to upload it here I'll do it. My husband found another dead roach in the seating area. The shower stall didn't drain nor did the sink. After several different attempts I finally found an outlet where there the coffee maker would work. There were map tacks on the floor by the window. When I showed the woman at the front desk the photo of the roach and took her the tacks she couldn't have possibly cared less. I mentioned the drainage problems but she didn't care about that either. I will say the jacuzzi tub was quite nice. I've stayed at many Days Inns many times and wouldn't fault the chain. The franchise owner must be the laziest person to ever run an inn. The entire place needs updating. The breakfast sucked too.More</t>
   </si>
   <si>
+    <t>HaleDamage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r47509070-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2313,6 +2625,9 @@
     <t>Coffee maker &amp; hair dryer didn't work as well as the ironing board legs were completely broken off. A/C didn't cool. Gum stuck on headboard.TV wouldn't get 2-3 channels..we could hear it but the screen was black. Kitchen area is not the same pic on their website. We left to run  an errand (we loaded our bags in the car) and housekeeping came in to clean when we got back the door was left open...we hadn't checked out yet as we had late check-out...we  were just lounging when housekeeping just barged in without knocking. If you just need a place to sleep and shower, this is the place but other than that, GO SOMEWHERE ELSE.  We won't be back to this hotel next year.More</t>
   </si>
   <si>
+    <t>andyhartman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r14858471-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2331,6 +2646,9 @@
     <t>April 2008</t>
   </si>
   <si>
+    <t>lazcano2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r12424588-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2346,6 +2664,9 @@
     <t>Unfortually after Amercan Airlines screwed us up i our conection flight they booked us here, never stay here again! courtains fell up and down, no tv remote, awfull smell</t>
   </si>
   <si>
+    <t>tkofford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r8141335-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2365,6 +2686,9 @@
   </si>
   <si>
     <t>We chose to stay here because we were on our way back to Lawrence, Kansas from a week down in Port Aransas, Texas. Dallas/Ft. Worth was the halfway point home and this particular area was really close to one of our favorite restaurants,  Pappadeaux Seafood Kitchen. Basically, after traveling from the beach for 7 hours we just wanted to have a good meal, rest our heads, and head out early the next day.However, our plans were rudely interrupted the next morning when we awoke. I parked my car right next to the managers office/check-in under a very bright light that night after we finished eating, but apparently, someone decided that they wanted my car stereo and other items (including my 7year old son's suitcase) and broke out a window to take these items. The night manager said he didn't hear a thing, although there was glass all over the parking lot from my window.Don't stay there, there is no security or monitoring on the premises. The hotel posts a sign in the parking lot, stating "...Not responsible for lost or stolen items." How inviting for a thief.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109479-r3632613-Days_Inn_Suites_Dallas-Dallas_Texas.html</t>
@@ -2887,43 +3211,47 @@
       <c r="A2" t="n">
         <v>37839</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>128433</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2939,54 +3267,58 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37839</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>5411</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3008,54 +3340,58 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37839</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>128434</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -3077,54 +3413,58 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37839</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>128435</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -3146,56 +3486,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37839</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>26379</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3217,54 +3561,58 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37839</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>128436</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3286,54 +3634,58 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37839</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>128437</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
         <v>90</v>
-      </c>
-      <c r="J8" t="s">
-        <v>84</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3355,54 +3707,58 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37839</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>128438</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3424,56 +3780,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37839</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>7465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>98</v>
       </c>
-      <c r="L10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>91</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3495,56 +3855,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37839</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>128439</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3566,54 +3930,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37839</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>128440</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -3635,56 +4003,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37839</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>128441</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3706,54 +4078,58 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37839</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>128442</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3775,56 +4151,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37839</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>128443</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3846,56 +4226,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="X15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37839</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>21680</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>138</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>125</v>
-      </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3917,54 +4301,58 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="X16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37839</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>128444</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3986,56 +4374,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Y17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37839</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>128445</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -4051,56 +4443,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37839</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>128446</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4124,50 +4520,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37839</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>128447</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -4189,41 +4589,45 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="X20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37839</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>128448</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -4231,10 +4635,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -4255,49 +4659,50 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37839</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>128449</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4319,54 +4724,58 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="X22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37839</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>128450</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -4388,54 +4797,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="X23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="Y23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37839</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>128451</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4457,56 +4870,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="X24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37839</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>128452</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4528,56 +4945,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="X25" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37839</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>128453</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4599,54 +5020,58 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="X26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="Y26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37839</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>10956</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4668,56 +5093,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="X27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="Y27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37839</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>128454</v>
+      </c>
+      <c r="C28" t="s">
+        <v>230</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4739,56 +5168,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="X28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37839</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>128455</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4810,54 +5243,58 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="X29" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="Y29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37839</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>128456</v>
+      </c>
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4879,56 +5316,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="X30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="Y30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37839</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>128457</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4940,54 +5381,58 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="X31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Y31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37839</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>7465</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -5009,56 +5454,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="X32" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="Y32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37839</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>38246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -5080,41 +5529,45 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="X33" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="Y33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37839</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>128458</v>
+      </c>
+      <c r="C34" t="s">
+        <v>276</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -5130,9 +5583,6 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5144,37 +5594,37 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -5196,56 +5646,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="X35" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="Y35" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37839</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>128459</v>
+      </c>
+      <c r="C36" t="s">
+        <v>289</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="J36" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -5269,48 +5723,52 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37839</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>128460</v>
+      </c>
+      <c r="C37" t="s">
+        <v>295</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -5332,56 +5790,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="X37" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37839</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>128461</v>
+      </c>
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5403,54 +5865,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="X38" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37839</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>128462</v>
+      </c>
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5472,54 +5938,58 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="X39" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="Y39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37839</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>128463</v>
+      </c>
+      <c r="C40" t="s">
+        <v>317</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="J40" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -5541,56 +6011,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="X40" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37839</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>128464</v>
+      </c>
+      <c r="C41" t="s">
+        <v>323</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="J41" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5612,56 +6086,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="X41" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="Y41" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37839</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>12737</v>
+      </c>
+      <c r="C42" t="s">
+        <v>332</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="J42" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="K42" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5677,13 +6155,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="X42" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="Y42" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43">
@@ -5696,37 +6174,37 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5748,56 +6226,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="X43" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="Y43" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37839</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>128465</v>
+      </c>
+      <c r="C44" t="s">
+        <v>347</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="J44" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5809,56 +6291,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="X44" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="Y44" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37839</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>128466</v>
+      </c>
+      <c r="C45" t="s">
+        <v>357</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="O45" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5880,13 +6366,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="X45" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="Y45" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46">
@@ -5899,37 +6385,37 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5951,56 +6437,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="X46" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="Y46" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37839</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>128467</v>
+      </c>
+      <c r="C47" t="s">
+        <v>373</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="J47" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="K47" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -6022,56 +6512,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X47" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y47" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37839</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>128468</v>
+      </c>
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="K48" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -6093,54 +6587,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="X48" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="Y48" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37839</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>7327</v>
+      </c>
+      <c r="C49" t="s">
+        <v>392</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="J49" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -6162,56 +6660,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="X49" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="Y49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37839</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>85402</v>
+      </c>
+      <c r="C50" t="s">
+        <v>398</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="J50" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
       </c>
       <c r="L50" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -6233,56 +6735,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="X50" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="Y50" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37839</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>128469</v>
+      </c>
+      <c r="C51" t="s">
+        <v>406</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="J51" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="K51" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6304,54 +6810,58 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="X51" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="Y51" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37839</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>128470</v>
+      </c>
+      <c r="C52" t="s">
+        <v>413</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="J52" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6373,54 +6883,58 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="X52" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="Y52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37839</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>128471</v>
+      </c>
+      <c r="C53" t="s">
+        <v>420</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="J53" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="O53" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6442,56 +6956,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="X53" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="Y53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37839</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>7465</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6513,56 +7031,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="X54" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="Y54" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37839</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>128472</v>
+      </c>
+      <c r="C55" t="s">
+        <v>433</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="J55" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="K55" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6574,54 +7096,58 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="X55" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="Y55" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37839</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>22427</v>
+      </c>
+      <c r="C56" t="s">
+        <v>440</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="J56" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6643,56 +7169,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="X56" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="Y56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37839</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>128473</v>
+      </c>
+      <c r="C57" t="s">
+        <v>446</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="J57" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="K57" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6714,54 +7244,58 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="X57" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="Y57" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37839</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>128474</v>
+      </c>
+      <c r="C58" t="s">
+        <v>456</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="J58" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="O58" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6783,54 +7317,58 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="X58" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="Y58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37839</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>128465</v>
+      </c>
+      <c r="C59" t="s">
+        <v>357</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="J59" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6852,56 +7390,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="X59" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="Y59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37839</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>128475</v>
+      </c>
+      <c r="C60" t="s">
+        <v>464</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="J60" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K60" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="L60" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6923,54 +7465,58 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="X60" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="Y60" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37839</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>128476</v>
+      </c>
+      <c r="C61" t="s">
+        <v>470</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="J61" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="O61" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6992,54 +7538,58 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="X61" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="Y61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37839</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>128477</v>
+      </c>
+      <c r="C62" t="s">
+        <v>476</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="J62" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -7061,56 +7611,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="X62" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="Y62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37839</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>128478</v>
+      </c>
+      <c r="C63" t="s">
+        <v>483</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="J63" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="K63" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="L63" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -7128,56 +7682,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="X63" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="Y63" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37839</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>128479</v>
+      </c>
+      <c r="C64" t="s">
+        <v>492</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="J64" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="K64" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="L64" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -7199,54 +7757,58 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="X64" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="Y64" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37839</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>128480</v>
+      </c>
+      <c r="C65" t="s">
+        <v>501</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="J65" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7268,54 +7830,58 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="X65" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="Y65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37839</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>128481</v>
+      </c>
+      <c r="C66" t="s">
+        <v>508</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="J66" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -7337,13 +7903,13 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="X66" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="Y66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67">
@@ -7356,35 +7922,35 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="J67" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="O67" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7406,56 +7972,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="X67" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="Y67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37839</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>70552</v>
+      </c>
+      <c r="C68" t="s">
+        <v>520</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="J68" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="K68" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="L68" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="O68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7477,54 +8047,58 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="X68" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="Y68" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37839</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>128482</v>
+      </c>
+      <c r="C69" t="s">
+        <v>530</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="J69" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="O69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7546,56 +8120,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="X69" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="Y69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37839</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>128483</v>
+      </c>
+      <c r="C70" t="s">
+        <v>535</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="J70" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="K70" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="L70" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -7617,56 +8195,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="X70" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="Y70" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37839</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>128484</v>
+      </c>
+      <c r="C71" t="s">
+        <v>544</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="J71" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="K71" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="L71" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -7684,54 +8266,58 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="X71" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="Y71" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37839</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>128485</v>
+      </c>
+      <c r="C72" t="s">
+        <v>552</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="J72" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="O72" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -7753,56 +8339,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="X72" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="Y72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37839</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>128486</v>
+      </c>
+      <c r="C73" t="s">
+        <v>559</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="J73" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="K73" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="L73" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -7824,54 +8414,58 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="X73" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="Y73" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37839</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>128487</v>
+      </c>
+      <c r="C74" t="s">
+        <v>568</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="J74" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7893,56 +8487,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="X74" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="Y74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37839</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>72918</v>
+      </c>
+      <c r="C75" t="s">
+        <v>572</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="J75" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="K75" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="L75" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7960,54 +8558,58 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="X75" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="Y75" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37839</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>112611</v>
+      </c>
+      <c r="C76" t="s">
+        <v>580</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="J76" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="O76" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8029,54 +8631,58 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="X76" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="Y76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37839</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>128488</v>
+      </c>
+      <c r="C77" t="s">
+        <v>586</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="J77" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8098,54 +8704,58 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="X77" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="Y77" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37839</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>70938</v>
+      </c>
+      <c r="C78" t="s">
+        <v>590</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="J78" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="O78" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -8167,56 +8777,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="X78" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="Y78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37839</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>128489</v>
+      </c>
+      <c r="C79" t="s">
+        <v>597</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>528</v>
+        <v>599</v>
       </c>
       <c r="J79" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="K79" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="L79" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -8238,56 +8852,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="X79" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="Y79" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37839</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>6436</v>
+      </c>
+      <c r="C80" t="s">
+        <v>606</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>536</v>
+        <v>608</v>
       </c>
       <c r="J80" t="s">
-        <v>537</v>
+        <v>609</v>
       </c>
       <c r="K80" t="s">
-        <v>538</v>
+        <v>610</v>
       </c>
       <c r="L80" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="O80" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P80" t="n">
         <v>2</v>
@@ -8309,54 +8927,58 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="X80" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="Y80" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37839</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>128490</v>
+      </c>
+      <c r="C81" t="s">
+        <v>615</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>543</v>
+        <v>616</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>544</v>
+        <v>617</v>
       </c>
       <c r="J81" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8368,56 +8990,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="X81" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="Y81" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37839</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>128491</v>
+      </c>
+      <c r="C82" t="s">
+        <v>622</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>550</v>
+        <v>624</v>
       </c>
       <c r="J82" t="s">
-        <v>551</v>
+        <v>625</v>
       </c>
       <c r="K82" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="L82" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="O82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8439,54 +9065,58 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="X82" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="Y82" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37839</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>128492</v>
+      </c>
+      <c r="C83" t="s">
+        <v>629</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="J83" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -8508,47 +9138,51 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="X83" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="Y83" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37839</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>128493</v>
+      </c>
+      <c r="C84" t="s">
+        <v>636</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>561</v>
+        <v>637</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>562</v>
+        <v>638</v>
       </c>
       <c r="J84" t="s">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="K84" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
       <c r="L84" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
@@ -8575,54 +9209,58 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="X84" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="Y84" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37839</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>4795</v>
+      </c>
+      <c r="C85" t="s">
+        <v>645</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="J85" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="O85" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -8644,54 +9282,58 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="X85" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="Y85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37839</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>128494</v>
+      </c>
+      <c r="C86" t="s">
+        <v>650</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>573</v>
+        <v>651</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>574</v>
+        <v>652</v>
       </c>
       <c r="J86" t="s">
-        <v>575</v>
+        <v>653</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="O86" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8713,54 +9355,58 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="X86" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="Y86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37839</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>23676</v>
+      </c>
+      <c r="C87" t="s">
+        <v>657</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>579</v>
+        <v>658</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>580</v>
+        <v>659</v>
       </c>
       <c r="J87" t="s">
-        <v>581</v>
+        <v>660</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8782,56 +9428,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>582</v>
+        <v>661</v>
       </c>
       <c r="X87" t="s">
-        <v>583</v>
+        <v>662</v>
       </c>
       <c r="Y87" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37839</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>6436</v>
+      </c>
+      <c r="C88" t="s">
+        <v>606</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="J88" t="s">
-        <v>586</v>
+        <v>665</v>
       </c>
       <c r="K88" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="L88" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P88" t="n">
         <v>2</v>
@@ -8853,54 +9503,58 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="X88" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="Y88" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37839</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>128495</v>
+      </c>
+      <c r="C89" t="s">
+        <v>671</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="J89" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="O89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8922,56 +9576,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="X89" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="Y89" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37839</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>103363</v>
+      </c>
+      <c r="C90" t="s">
+        <v>676</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="J90" t="s">
-        <v>598</v>
+        <v>679</v>
       </c>
       <c r="K90" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="L90" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="O90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8993,54 +9651,58 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>582</v>
+        <v>661</v>
       </c>
       <c r="X90" t="s">
-        <v>583</v>
+        <v>662</v>
       </c>
       <c r="Y90" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37839</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>7807</v>
+      </c>
+      <c r="C91" t="s">
+        <v>683</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>602</v>
+        <v>684</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>603</v>
+        <v>685</v>
       </c>
       <c r="J91" t="s">
-        <v>604</v>
+        <v>686</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="O91" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -9062,54 +9724,58 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="X91" t="s">
-        <v>607</v>
+        <v>689</v>
       </c>
       <c r="Y91" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37839</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>7465</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="J92" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9131,54 +9797,58 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="X92" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="Y92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37839</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>128496</v>
+      </c>
+      <c r="C93" t="s">
+        <v>696</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="J93" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="O93" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -9200,56 +9870,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="X93" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="Y93" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37839</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>128497</v>
+      </c>
+      <c r="C94" t="s">
+        <v>702</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>619</v>
+        <v>703</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>620</v>
+        <v>704</v>
       </c>
       <c r="J94" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="K94" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="L94" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="O94" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -9271,56 +9945,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X94" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y94" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37839</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>128498</v>
+      </c>
+      <c r="C95" t="s">
+        <v>712</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="J95" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="K95" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="L95" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="O95" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -9342,54 +10020,58 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X95" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y95" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37839</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>8176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>719</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="J96" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="O96" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9411,56 +10093,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X96" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y96" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37839</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>128499</v>
+      </c>
+      <c r="C97" t="s">
+        <v>723</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>637</v>
+        <v>724</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>638</v>
+        <v>725</v>
       </c>
       <c r="J97" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="K97" t="s">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="L97" t="s">
-        <v>641</v>
+        <v>728</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="O97" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9482,56 +10168,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>642</v>
+        <v>729</v>
       </c>
       <c r="X97" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="Y97" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37839</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>128500</v>
+      </c>
+      <c r="C98" t="s">
+        <v>732</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>646</v>
+        <v>734</v>
       </c>
       <c r="J98" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
       <c r="K98" t="s">
-        <v>648</v>
+        <v>736</v>
       </c>
       <c r="L98" t="s">
-        <v>649</v>
+        <v>737</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="O98" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9553,54 +10243,58 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>651</v>
+        <v>739</v>
       </c>
       <c r="X98" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="Y98" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37839</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>59751</v>
+      </c>
+      <c r="C99" t="s">
+        <v>742</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>654</v>
+        <v>743</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>655</v>
+        <v>744</v>
       </c>
       <c r="J99" t="s">
-        <v>656</v>
+        <v>745</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="O99" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -9622,54 +10316,58 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>657</v>
+        <v>746</v>
       </c>
       <c r="X99" t="s">
-        <v>658</v>
+        <v>747</v>
       </c>
       <c r="Y99" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37839</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C100" t="s">
+        <v>748</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="J100" t="s">
-        <v>661</v>
+        <v>751</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="O100" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9691,54 +10389,58 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="X100" t="s">
-        <v>663</v>
+        <v>753</v>
       </c>
       <c r="Y100" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37839</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>128501</v>
+      </c>
+      <c r="C101" t="s">
+        <v>754</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>664</v>
+        <v>755</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>665</v>
+        <v>756</v>
       </c>
       <c r="J101" t="s">
-        <v>666</v>
+        <v>757</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>667</v>
+        <v>758</v>
       </c>
       <c r="O101" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -9760,54 +10462,58 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>668</v>
+        <v>759</v>
       </c>
       <c r="X101" t="s">
-        <v>669</v>
+        <v>760</v>
       </c>
       <c r="Y101" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37839</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C102" t="s">
+        <v>761</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>670</v>
+        <v>762</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>671</v>
+        <v>763</v>
       </c>
       <c r="J102" t="s">
-        <v>672</v>
+        <v>764</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>667</v>
+        <v>758</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9829,56 +10535,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>673</v>
+        <v>765</v>
       </c>
       <c r="X102" t="s">
-        <v>674</v>
+        <v>766</v>
       </c>
       <c r="Y102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37839</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>128502</v>
+      </c>
+      <c r="C103" t="s">
+        <v>767</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>675</v>
+        <v>768</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>676</v>
+        <v>769</v>
       </c>
       <c r="J103" t="s">
-        <v>677</v>
+        <v>770</v>
       </c>
       <c r="K103" t="s">
-        <v>678</v>
+        <v>771</v>
       </c>
       <c r="L103" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>680</v>
+        <v>773</v>
       </c>
       <c r="O103" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -9900,54 +10610,58 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>673</v>
+        <v>765</v>
       </c>
       <c r="X103" t="s">
-        <v>674</v>
+        <v>766</v>
       </c>
       <c r="Y103" t="s">
-        <v>681</v>
+        <v>774</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37839</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>128503</v>
+      </c>
+      <c r="C104" t="s">
+        <v>775</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>682</v>
+        <v>776</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>683</v>
+        <v>777</v>
       </c>
       <c r="J104" t="s">
-        <v>684</v>
+        <v>778</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>680</v>
+        <v>773</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9969,54 +10683,58 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="X104" t="s">
-        <v>686</v>
+        <v>780</v>
       </c>
       <c r="Y104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37839</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>84116</v>
+      </c>
+      <c r="C105" t="s">
+        <v>781</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>687</v>
+        <v>782</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>688</v>
+        <v>783</v>
       </c>
       <c r="J105" t="s">
-        <v>689</v>
+        <v>784</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -10038,54 +10756,58 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>691</v>
+        <v>786</v>
       </c>
       <c r="X105" t="s">
-        <v>692</v>
+        <v>787</v>
       </c>
       <c r="Y105" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37839</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>35305</v>
+      </c>
+      <c r="C106" t="s">
+        <v>788</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
       <c r="J106" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
       <c r="O106" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -10107,56 +10829,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
       <c r="X106" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
       <c r="Y106" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37839</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>113700</v>
+      </c>
+      <c r="C107" t="s">
+        <v>794</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>698</v>
+        <v>795</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>699</v>
+        <v>796</v>
       </c>
       <c r="J107" t="s">
-        <v>700</v>
+        <v>797</v>
       </c>
       <c r="K107" t="s">
-        <v>701</v>
+        <v>798</v>
       </c>
       <c r="L107" t="s">
-        <v>702</v>
+        <v>799</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>703</v>
+        <v>800</v>
       </c>
       <c r="O107" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P107" t="n">
         <v>2</v>
@@ -10178,54 +10904,58 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>704</v>
+        <v>801</v>
       </c>
       <c r="X107" t="s">
-        <v>705</v>
+        <v>802</v>
       </c>
       <c r="Y107" t="s">
-        <v>706</v>
+        <v>803</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37839</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>128504</v>
+      </c>
+      <c r="C108" t="s">
+        <v>804</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>707</v>
+        <v>805</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>708</v>
+        <v>806</v>
       </c>
       <c r="J108" t="s">
-        <v>709</v>
+        <v>807</v>
       </c>
       <c r="K108" t="s"/>
       <c r="L108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>710</v>
+        <v>808</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -10247,56 +10977,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>711</v>
+        <v>809</v>
       </c>
       <c r="X108" t="s">
-        <v>712</v>
+        <v>810</v>
       </c>
       <c r="Y108" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37839</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>41865</v>
+      </c>
+      <c r="C109" t="s">
+        <v>811</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>713</v>
+        <v>812</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>714</v>
+        <v>813</v>
       </c>
       <c r="J109" t="s">
-        <v>715</v>
+        <v>814</v>
       </c>
       <c r="K109" t="s">
-        <v>716</v>
+        <v>815</v>
       </c>
       <c r="L109" t="s">
-        <v>717</v>
+        <v>816</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>710</v>
+        <v>808</v>
       </c>
       <c r="O109" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -10318,47 +11052,51 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>718</v>
+        <v>817</v>
       </c>
       <c r="X109" t="s">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="Y109" t="s">
-        <v>720</v>
+        <v>819</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37839</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>128505</v>
+      </c>
+      <c r="C110" t="s">
+        <v>820</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>721</v>
+        <v>821</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>722</v>
+        <v>822</v>
       </c>
       <c r="J110" t="s">
-        <v>723</v>
+        <v>823</v>
       </c>
       <c r="K110" t="s">
-        <v>724</v>
+        <v>824</v>
       </c>
       <c r="L110" t="s">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
@@ -10387,50 +11125,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>726</v>
+        <v>826</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37839</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>128506</v>
+      </c>
+      <c r="C111" t="s">
+        <v>827</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>727</v>
+        <v>828</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>728</v>
+        <v>829</v>
       </c>
       <c r="J111" t="s">
-        <v>729</v>
+        <v>830</v>
       </c>
       <c r="K111" t="s">
-        <v>730</v>
+        <v>831</v>
       </c>
       <c r="L111" t="s">
-        <v>731</v>
+        <v>832</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>732</v>
+        <v>833</v>
       </c>
       <c r="O111" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P111" t="s"/>
       <c r="Q111" t="n">
@@ -10450,50 +11192,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>731</v>
+        <v>832</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37839</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>128507</v>
+      </c>
+      <c r="C112" t="s">
+        <v>834</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>733</v>
+        <v>835</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>734</v>
+        <v>836</v>
       </c>
       <c r="J112" t="s">
-        <v>735</v>
+        <v>837</v>
       </c>
       <c r="K112" t="s">
-        <v>736</v>
+        <v>838</v>
       </c>
       <c r="L112" t="s">
-        <v>737</v>
+        <v>839</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>738</v>
+        <v>840</v>
       </c>
       <c r="O112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -10513,50 +11259,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>737</v>
+        <v>839</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37839</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>128508</v>
+      </c>
+      <c r="C113" t="s">
+        <v>841</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>739</v>
+        <v>842</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>740</v>
+        <v>843</v>
       </c>
       <c r="J113" t="s">
-        <v>741</v>
+        <v>844</v>
       </c>
       <c r="K113" t="s">
-        <v>742</v>
+        <v>845</v>
       </c>
       <c r="L113" t="s">
-        <v>743</v>
+        <v>846</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>744</v>
+        <v>847</v>
       </c>
       <c r="O113" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -10580,50 +11330,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37839</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>128509</v>
+      </c>
+      <c r="C114" t="s">
+        <v>849</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>746</v>
+        <v>850</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="J114" t="s">
-        <v>748</v>
+        <v>852</v>
       </c>
       <c r="K114" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="L114" t="s">
-        <v>750</v>
+        <v>854</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>751</v>
+        <v>855</v>
       </c>
       <c r="O114" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P114" t="s"/>
       <c r="Q114" t="s"/>
@@ -10637,50 +11391,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>752</v>
+        <v>856</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37839</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>128510</v>
+      </c>
+      <c r="C115" t="s">
+        <v>857</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>753</v>
+        <v>858</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>754</v>
+        <v>859</v>
       </c>
       <c r="J115" t="s">
-        <v>755</v>
+        <v>860</v>
       </c>
       <c r="K115" t="s">
-        <v>756</v>
+        <v>861</v>
       </c>
       <c r="L115" t="s">
-        <v>757</v>
+        <v>862</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>758</v>
+        <v>863</v>
       </c>
       <c r="O115" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -10704,41 +11462,45 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>757</v>
+        <v>862</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>37839</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>128511</v>
+      </c>
+      <c r="C116" t="s">
+        <v>864</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>759</v>
+        <v>865</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>760</v>
+        <v>866</v>
       </c>
       <c r="J116" t="s">
-        <v>761</v>
+        <v>867</v>
       </c>
       <c r="K116" t="s">
-        <v>762</v>
+        <v>868</v>
       </c>
       <c r="L116" t="s">
-        <v>763</v>
+        <v>869</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
@@ -10767,50 +11529,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>763</v>
+        <v>869</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>37839</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>128512</v>
+      </c>
+      <c r="C117" t="s">
+        <v>870</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>764</v>
+        <v>871</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>765</v>
+        <v>872</v>
       </c>
       <c r="J117" t="s">
-        <v>766</v>
+        <v>873</v>
       </c>
       <c r="K117" t="s">
-        <v>767</v>
+        <v>874</v>
       </c>
       <c r="L117" t="s">
-        <v>768</v>
+        <v>875</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>769</v>
+        <v>876</v>
       </c>
       <c r="O117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -10834,41 +11600,45 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>770</v>
+        <v>877</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>37839</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>878</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>771</v>
+        <v>879</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>772</v>
+        <v>880</v>
       </c>
       <c r="J118" t="s">
-        <v>773</v>
+        <v>881</v>
       </c>
       <c r="K118" t="s">
-        <v>774</v>
+        <v>882</v>
       </c>
       <c r="L118" t="s">
-        <v>775</v>
+        <v>883</v>
       </c>
       <c r="M118" t="n">
         <v>2</v>
@@ -10887,7 +11657,7 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>776</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
